--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1449,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2087,8 +2090,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3025,8 +3122,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4756,6 +5006,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4763,7 +5295,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="141">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5113,49 +5645,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5813,7 +6390,7 @@
         <v>319</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H5" t="s">
         <v>331</v>
@@ -5875,7 +6452,7 @@
         <v>371</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -5931,7 +6508,7 @@
         <v>349</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>450</v>
       </c>
       <c r="I7" t="s">
         <v>71</v>
@@ -5987,7 +6564,7 @@
         <v>350</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -6040,7 +6617,7 @@
         <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
         <v>373</v>
@@ -6081,7 +6658,7 @@
         <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>455</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -6119,7 +6696,7 @@
         <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -6154,7 +6731,7 @@
         <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I12" t="s">
         <v>72</v>
@@ -6186,7 +6763,7 @@
         <v>299</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I13" t="s">
         <v>73</v>
@@ -6216,6 +6793,9 @@
       </c>
       <c r="E14" t="s">
         <v>247</v>
+      </c>
+      <c r="F14" t="s">
+        <v>308</v>
       </c>
       <c r="I14" t="s">
         <v>74</v>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="461">
   <si>
     <t>description</t>
   </si>
@@ -1442,6 +1442,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1452,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2184,8 +2187,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3275,8 +3466,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5288,6 +5785,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5295,7 +6356,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5690,49 +6751,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6798,7 +7949,7 @@
         <v>308</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>460</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -6827,7 +7978,7 @@
         <v>248</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
         <v>425</v>
@@ -6853,7 +8004,7 @@
         <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
         <v>235</v>
@@ -6876,7 +8027,7 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="U17" t="s">
         <v>90</v>
@@ -6893,7 +8044,7 @@
         <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
         <v>91</v>
@@ -6910,7 +8061,7 @@
         <v>279</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="U19" t="s">
         <v>92</v>
@@ -6927,7 +8078,7 @@
         <v>280</v>
       </c>
       <c r="I20" t="s">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s">
         <v>93</v>
@@ -6944,7 +8095,7 @@
         <v>281</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="U21" t="s">
         <v>94</v>
@@ -6961,7 +8112,7 @@
         <v>282</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
         <v>95</v>
@@ -6976,6 +8127,9 @@
       </c>
       <c r="E23" t="s">
         <v>273</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
       </c>
       <c r="U23" t="s">
         <v>96</v>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5587" uniqueCount="463">
   <si>
     <t>description</t>
   </si>
@@ -1445,6 +1445,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1458,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2375,8 +2381,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3772,8 +3966,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6349,6 +6849,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6356,7 +7420,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="201">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6841,49 +7905,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7387,7 +8541,7 @@
         <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
         <v>348</v>
@@ -7461,7 +8615,7 @@
         <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
@@ -7532,7 +8686,7 @@
         <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
         <v>434</v>
@@ -7597,7 +8751,7 @@
         <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>371</v>
@@ -7653,7 +8807,7 @@
         <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
         <v>349</v>
@@ -7709,7 +8863,7 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
         <v>350</v>
@@ -7762,7 +8916,7 @@
         <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>289</v>
@@ -7803,7 +8957,7 @@
         <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
         <v>335</v>
@@ -7841,7 +8995,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
         <v>257</v>
@@ -7876,7 +9030,7 @@
         <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
         <v>246</v>
@@ -7908,7 +9062,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
         <v>299</v>
@@ -7940,7 +9094,7 @@
         <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>247</v>
@@ -7972,7 +9126,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>248</v>
@@ -7998,7 +9152,7 @@
         <v>379</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
         <v>300</v>
@@ -8021,7 +9175,7 @@
         <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="E17" t="s">
         <v>80</v>
@@ -8038,7 +9192,7 @@
         <v>396</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
@@ -8055,7 +9209,7 @@
         <v>340</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>279</v>
@@ -8072,7 +9226,7 @@
         <v>380</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>280</v>
@@ -8089,7 +9243,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
         <v>281</v>
@@ -8106,7 +9260,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>282</v>
@@ -8123,7 +9277,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>451</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
         <v>273</v>
@@ -8140,7 +9294,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>262</v>
@@ -8154,7 +9308,7 @@
         <v>397</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
@@ -8168,7 +9322,7 @@
         <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
         <v>265</v>
@@ -8179,7 +9333,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
         <v>249</v>
@@ -8190,7 +9344,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="E28" t="s">
         <v>266</v>
@@ -8201,7 +9355,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
         <v>267</v>
@@ -8212,7 +9366,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
         <v>201</v>
@@ -8223,7 +9377,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
         <v>258</v>
@@ -8234,7 +9388,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
         <v>268</v>
@@ -8245,7 +9399,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
         <v>243</v>
@@ -8256,7 +9410,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
         <v>313</v>
@@ -8266,6 +9420,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
       <c r="E35" t="s">
         <v>290</v>
       </c>
@@ -8274,6 +9431,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
       <c r="E36" t="s">
         <v>244</v>
       </c>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5587" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1451,6 +1451,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1461,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="191" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2569,8 +2572,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4272,8 +4369,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7413,6 +7663,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7420,7 +7952,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="216">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7995,49 +8527,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8362,7 +8939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9574,7 +10151,7 @@
         <v>251</v>
       </c>
       <c r="U53" t="s">
-        <v>117</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
@@ -9582,7 +10159,7 @@
         <v>275</v>
       </c>
       <c r="U54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
@@ -9590,7 +10167,7 @@
         <v>276</v>
       </c>
       <c r="U55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
@@ -9598,7 +10175,7 @@
         <v>277</v>
       </c>
       <c r="U56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
@@ -9606,7 +10183,7 @@
         <v>286</v>
       </c>
       <c r="U57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -9614,7 +10191,7 @@
         <v>295</v>
       </c>
       <c r="U58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -9622,7 +10199,7 @@
         <v>320</v>
       </c>
       <c r="U59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
@@ -9630,7 +10207,7 @@
         <v>292</v>
       </c>
       <c r="U60" t="s">
-        <v>431</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
@@ -9638,7 +10215,7 @@
         <v>293</v>
       </c>
       <c r="U61" t="s">
-        <v>199</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62">
@@ -9646,7 +10223,7 @@
         <v>352</v>
       </c>
       <c r="U62" t="s">
-        <v>372</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63">
@@ -9654,7 +10231,7 @@
         <v>353</v>
       </c>
       <c r="U63" t="s">
-        <v>437</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64">
@@ -9662,7 +10239,7 @@
         <v>328</v>
       </c>
       <c r="U64" t="s">
-        <v>124</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65">
@@ -9670,7 +10247,7 @@
         <v>296</v>
       </c>
       <c r="U65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
@@ -9678,7 +10255,7 @@
         <v>252</v>
       </c>
       <c r="U66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -9686,7 +10263,7 @@
         <v>336</v>
       </c>
       <c r="U67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
@@ -9694,7 +10271,7 @@
         <v>297</v>
       </c>
       <c r="U68" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
@@ -9702,7 +10279,7 @@
         <v>393</v>
       </c>
       <c r="U69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
@@ -9710,7 +10287,7 @@
         <v>287</v>
       </c>
       <c r="U70" t="s">
-        <v>458</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71">
@@ -9718,7 +10295,7 @@
         <v>394</v>
       </c>
       <c r="U71" t="s">
-        <v>128</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72">
@@ -9726,7 +10303,7 @@
         <v>245</v>
       </c>
       <c r="U72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
@@ -9734,7 +10311,7 @@
         <v>327</v>
       </c>
       <c r="U73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
@@ -9742,7 +10319,7 @@
         <v>263</v>
       </c>
       <c r="U74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
@@ -9750,7 +10327,7 @@
         <v>269</v>
       </c>
       <c r="U75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
@@ -9758,7 +10335,7 @@
         <v>274</v>
       </c>
       <c r="U76" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
@@ -9766,7 +10343,7 @@
         <v>412</v>
       </c>
       <c r="U77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78">
@@ -9774,7 +10351,7 @@
         <v>315</v>
       </c>
       <c r="U78" t="s">
-        <v>457</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79">
@@ -9782,7 +10359,7 @@
         <v>253</v>
       </c>
       <c r="U79" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80">
@@ -9790,7 +10367,7 @@
         <v>264</v>
       </c>
       <c r="U80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
@@ -9798,7 +10375,7 @@
         <v>270</v>
       </c>
       <c r="U81" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82">
@@ -9806,7 +10383,7 @@
         <v>259</v>
       </c>
       <c r="U82" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -9814,7 +10391,7 @@
         <v>254</v>
       </c>
       <c r="U83" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
@@ -9822,7 +10399,7 @@
         <v>271</v>
       </c>
       <c r="U84" t="s">
-        <v>429</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85">
@@ -9830,7 +10407,7 @@
         <v>255</v>
       </c>
       <c r="U85" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86">
@@ -9838,7 +10415,7 @@
         <v>256</v>
       </c>
       <c r="U86" t="s">
-        <v>189</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87">
@@ -9846,7 +10423,7 @@
         <v>288</v>
       </c>
       <c r="U87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88">
@@ -9854,7 +10431,7 @@
         <v>294</v>
       </c>
       <c r="U88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89">
@@ -9862,7 +10439,7 @@
         <v>278</v>
       </c>
       <c r="U89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90">
@@ -9870,7 +10447,7 @@
         <v>323</v>
       </c>
       <c r="U90" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91">
@@ -9878,7 +10455,7 @@
         <v>260</v>
       </c>
       <c r="U91" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -9886,126 +10463,131 @@
         <v>261</v>
       </c>
       <c r="U92" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>433</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>148</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6532" uniqueCount="470">
   <si>
     <t>description</t>
   </si>
@@ -1454,6 +1455,24 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="207" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2666,8 +2685,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4522,8 +4642,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7945,6 +8218,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7952,7 +8507,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="232">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8572,49 +9127,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8939,7 +9542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8958,75 +9561,78 @@
         <v>354</v>
       </c>
       <c r="C1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>330</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>181</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>222</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>396</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>340</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>380</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>397</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9038,1556 +9644,1576 @@
         <v>355</v>
       </c>
       <c r="C2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>452</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>332</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>298</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>367</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>417</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>400</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>413</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>236</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>202</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>381</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>402</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>403</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>364</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>390</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>156</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>161</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>168</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>415</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
         <v>356</v>
       </c>
       <c r="C3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" t="s">
         <v>461</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>348</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>333</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>324</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>317</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>414</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>223</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>203</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>382</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>404</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>365</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>391</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>83</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>157</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>162</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>347</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>169</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>357</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>370</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>453</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>334</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>221</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>318</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>224</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>204</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>383</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>405</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>341</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>392</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>337</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>158</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>163</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>169</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>407</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>462</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>434</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>319</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>459</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>331</v>
       </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>467</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>225</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>205</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>384</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>406</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>342</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>338</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>159</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>164</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>170</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>408</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>359</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>371</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>454</v>
       </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>25</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>226</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>374</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>385</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>344</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>84</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>438</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>165</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>171</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>409</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>360</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>207</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>349</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>450</v>
       </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
         <v>298</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>227</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>401</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>386</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>343</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>85</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>439</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>166</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>172</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>410</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>301</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>350</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>311</v>
       </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>418</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>228</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>387</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>345</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>86</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>160</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>167</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>173</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>411</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>289</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>312</v>
       </c>
-      <c r="I9" t="s">
-        <v>373</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>419</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>229</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>388</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>346</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>194</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>174</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>298</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>335</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>455</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>373</v>
+      </c>
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>420</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>230</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>389</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>240</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>175</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
         <v>238</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>257</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>305</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
         <v>436</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>421</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>231</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>241</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>242</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>302</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>246</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>306</v>
       </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>422</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>232</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>87</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
         <v>324</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>299</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>307</v>
       </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>423</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>237</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>309</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>247</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>308</v>
       </c>
-      <c r="I14" t="s">
-        <v>460</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>424</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>233</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>88</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>248</v>
       </c>
-      <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>460</v>
+      </c>
+      <c r="N15" t="s">
         <v>425</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>234</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>89</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>379</v>
-      </c>
-      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>368</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>300</v>
       </c>
-      <c r="I16" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" t="s">
         <v>235</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>66</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" t="s">
         <v>369</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="s">
-        <v>363</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>90</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" t="s">
         <v>398</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>81</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>363</v>
+      </c>
+      <c r="V18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>279</v>
       </c>
-      <c r="I19" t="s">
-        <v>375</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>280</v>
       </c>
-      <c r="I20" t="s">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>375</v>
+      </c>
+      <c r="V20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" t="s">
         <v>239</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>281</v>
       </c>
-      <c r="I21" t="s">
-        <v>435</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>282</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>435</v>
+      </c>
+      <c r="V22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
         <v>304</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>273</v>
       </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>262</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>397</v>
-      </c>
-      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
         <v>451</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>67</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="C26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" t="s">
-        <v>265</v>
-      </c>
-      <c r="U26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>209</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>249</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>399</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>266</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>267</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>201</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>258</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>58</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>268</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>59</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>243</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>313</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>290</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>62</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>244</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>291</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>250</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>197</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>272</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>283</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>284</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>326</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>325</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>196</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>322</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>351</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>285</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>339</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>314</v>
+      </c>
+      <c r="V52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>314</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>251</v>
+      </c>
+      <c r="V53" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>251</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>275</v>
+      </c>
+      <c r="V54" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>275</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>276</v>
+      </c>
+      <c r="V55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>276</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+      <c r="V56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>277</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>286</v>
+      </c>
+      <c r="V57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>286</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>295</v>
+      </c>
+      <c r="V58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>295</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>320</v>
+      </c>
+      <c r="V59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>320</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>292</v>
+      </c>
+      <c r="V60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>292</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>293</v>
+      </c>
+      <c r="V61" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>293</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>352</v>
+      </c>
+      <c r="V62" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>352</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>353</v>
+      </c>
+      <c r="V63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>353</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>328</v>
+      </c>
+      <c r="V64" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>328</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>296</v>
+      </c>
+      <c r="V65" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>296</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>252</v>
+      </c>
+      <c r="V66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>252</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>336</v>
+      </c>
+      <c r="V67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>336</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>297</v>
+      </c>
+      <c r="V68" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>297</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>393</v>
+      </c>
+      <c r="V69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>393</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>287</v>
+      </c>
+      <c r="V70" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>287</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>394</v>
+      </c>
+      <c r="V71" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>394</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>245</v>
+      </c>
+      <c r="V72" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>245</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>327</v>
+      </c>
+      <c r="V73" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>327</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>263</v>
+      </c>
+      <c r="V74" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>263</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>269</v>
+      </c>
+      <c r="V75" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>269</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>274</v>
+      </c>
+      <c r="V76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>274</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>412</v>
+      </c>
+      <c r="V77" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>412</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>315</v>
+      </c>
+      <c r="V78" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>315</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>253</v>
+      </c>
+      <c r="V79" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>253</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>264</v>
+      </c>
+      <c r="V80" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>264</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>270</v>
+      </c>
+      <c r="V81" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>270</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>259</v>
+      </c>
+      <c r="V82" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>259</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>254</v>
+      </c>
+      <c r="V83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>254</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>271</v>
+      </c>
+      <c r="V84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>271</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>255</v>
+      </c>
+      <c r="V85" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>255</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>256</v>
+      </c>
+      <c r="V86" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>256</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>288</v>
+      </c>
+      <c r="V87" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>288</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>294</v>
+      </c>
+      <c r="V88" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>294</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>278</v>
+      </c>
+      <c r="V89" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>278</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>323</v>
+      </c>
+      <c r="V90" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>323</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>260</v>
+      </c>
+      <c r="V91" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>260</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>261</v>
+      </c>
+      <c r="V92" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>261</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6532" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7009" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1473,6 +1473,9 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1483,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="207" x14ac:knownFonts="1">
+  <fonts count="223" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2786,8 +2789,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4795,8 +4899,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8500,6 +8757,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8507,7 +9046,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9172,52 +9711,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="197" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9662,7 +10249,7 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>332</v>
+        <v>470</v>
       </c>
       <c r="J2" t="s">
         <v>298</v>
@@ -9745,7 +10332,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
         <v>324</v>
@@ -9816,7 +10403,7 @@
         <v>453</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
         <v>221</v>
@@ -9887,7 +10474,7 @@
         <v>459</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="J5" t="s">
         <v>467</v>
@@ -9947,6 +10534,9 @@
       </c>
       <c r="G6" t="s">
         <v>454</v>
+      </c>
+      <c r="I6" t="s">
+        <v>331</v>
       </c>
       <c r="J6" t="s">
         <v>63</v>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7009" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7970" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1476,6 +1476,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1495,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="223" x14ac:knownFonts="1">
+  <fonts count="255" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2890,8 +2902,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5052,8 +5266,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9039,6 +9559,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9046,7 +10130,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="280">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9759,52 +10843,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="210" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="225" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="229" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10129,7 +11309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10997,7 +12177,7 @@
         <v>279</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>474</v>
       </c>
       <c r="V19" t="s">
         <v>92</v>
@@ -11014,7 +12194,7 @@
         <v>280</v>
       </c>
       <c r="J20" t="s">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
         <v>93</v>
@@ -11031,7 +12211,7 @@
         <v>281</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="V21" t="s">
         <v>94</v>
@@ -11048,7 +12228,7 @@
         <v>282</v>
       </c>
       <c r="J22" t="s">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s">
         <v>95</v>
@@ -11065,7 +12245,7 @@
         <v>273</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="V23" t="s">
         <v>96</v>
@@ -11082,7 +12262,7 @@
         <v>262</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
         <v>97</v>
@@ -11098,6 +12278,9 @@
       <c r="F25" t="s">
         <v>67</v>
       </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" t="s">
         <v>98</v>
       </c>
@@ -11132,7 +12315,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
       <c r="F28" t="s">
         <v>266</v>
@@ -11143,7 +12326,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>55</v>
+        <v>472</v>
       </c>
       <c r="F29" t="s">
         <v>267</v>
@@ -11154,7 +12337,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="F30" t="s">
         <v>201</v>
@@ -11165,7 +12348,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
         <v>258</v>
@@ -11176,7 +12359,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>268</v>
@@ -11187,7 +12370,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
         <v>243</v>
@@ -11198,7 +12381,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
         <v>313</v>
@@ -11209,7 +12392,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
         <v>290</v>
@@ -11220,7 +12403,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
         <v>244</v>
@@ -11230,6 +12413,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" t="s">
         <v>291</v>
       </c>
@@ -11238,6 +12424,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
       <c r="F38" t="s">
         <v>250</v>
       </c>
@@ -11522,7 +12711,7 @@
         <v>327</v>
       </c>
       <c r="V73" t="s">
-        <v>128</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74">
@@ -11530,7 +12719,7 @@
         <v>263</v>
       </c>
       <c r="V74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
@@ -11538,7 +12727,7 @@
         <v>269</v>
       </c>
       <c r="V75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
@@ -11546,7 +12735,7 @@
         <v>274</v>
       </c>
       <c r="V76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
@@ -11554,7 +12743,7 @@
         <v>412</v>
       </c>
       <c r="V77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
@@ -11562,7 +12751,7 @@
         <v>315</v>
       </c>
       <c r="V78" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79">
@@ -11570,7 +12759,7 @@
         <v>253</v>
       </c>
       <c r="V79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
@@ -11578,7 +12767,7 @@
         <v>264</v>
       </c>
       <c r="V80" t="s">
-        <v>457</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81">
@@ -11586,7 +12775,7 @@
         <v>270</v>
       </c>
       <c r="V81" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82">
@@ -11594,7 +12783,7 @@
         <v>259</v>
       </c>
       <c r="V82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83">
@@ -11602,7 +12791,7 @@
         <v>254</v>
       </c>
       <c r="V83" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84">
@@ -11610,7 +12799,7 @@
         <v>271</v>
       </c>
       <c r="V84" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -11618,7 +12807,7 @@
         <v>255</v>
       </c>
       <c r="V85" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
@@ -11626,7 +12815,7 @@
         <v>256</v>
       </c>
       <c r="V86" t="s">
-        <v>429</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87">
@@ -11634,7 +12823,7 @@
         <v>288</v>
       </c>
       <c r="V87" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88">
@@ -11642,7 +12831,7 @@
         <v>294</v>
       </c>
       <c r="V88" t="s">
-        <v>189</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89">
@@ -11650,7 +12839,7 @@
         <v>278</v>
       </c>
       <c r="V89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90">
@@ -11658,7 +12847,7 @@
         <v>323</v>
       </c>
       <c r="V90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91">
@@ -11666,7 +12855,7 @@
         <v>260</v>
       </c>
       <c r="V91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92">
@@ -11674,136 +12863,141 @@
         <v>261</v>
       </c>
       <c r="V92" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>433</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>148</v>
+        <v>433</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7970" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8464" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1488,6 +1489,48 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1538,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="255" x14ac:knownFonts="1">
+  <fonts count="271" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3104,8 +3147,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5572,8 +5716,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10123,6 +10420,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10130,7 +10709,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="296">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10939,52 +11518,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="242" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="245" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11309,7 +11936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11358,48 +11985,51 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N1" t="s">
         <v>181</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>222</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>379</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>395</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>396</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>340</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>380</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>397</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11441,48 +12071,51 @@
         <v>417</v>
       </c>
       <c r="M2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N2" t="s">
         <v>400</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>413</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>236</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>202</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>381</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>402</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>403</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>364</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>390</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>82</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>156</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>161</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>168</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>415</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11509,7 +12142,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>476</v>
       </c>
       <c r="I3" t="s">
         <v>332</v>
@@ -11523,43 +12156,46 @@
       <c r="L3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>481</v>
+      </c>
+      <c r="O3" t="s">
         <v>414</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>223</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>203</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>382</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>404</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>365</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>391</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>83</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>157</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>162</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>347</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>169</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11582,6 +12218,9 @@
       <c r="G4" t="s">
         <v>453</v>
       </c>
+      <c r="H4" t="s">
+        <v>477</v>
+      </c>
       <c r="I4" t="s">
         <v>333</v>
       </c>
@@ -11594,43 +12233,46 @@
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>482</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>224</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>204</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>383</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>405</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>341</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>392</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>337</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>158</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>169</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>407</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -11662,40 +12304,40 @@
       <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>225</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>205</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>384</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>406</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>342</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>338</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>159</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>164</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>170</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>408</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11724,37 +12366,37 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>226</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>374</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>385</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>344</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>84</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>438</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>165</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>171</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>409</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -11780,37 +12422,37 @@
       <c r="L7" t="s">
         <v>298</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>227</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>401</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>386</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>343</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>85</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>439</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>166</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>172</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>410</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -11836,34 +12478,34 @@
       <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>418</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>228</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>387</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>345</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>86</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>160</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>167</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>173</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>411</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>217</v>
       </c>
     </row>
@@ -11889,26 +12531,26 @@
       <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>419</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>229</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>388</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>346</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>194</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>174</v>
       </c>
-      <c r="AA9" t="s">
-        <v>218</v>
+      <c r="AB9" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="10">
@@ -11930,23 +12572,23 @@
       <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>420</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>230</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>389</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>240</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>175</v>
       </c>
-      <c r="AA10" t="s">
-        <v>219</v>
+      <c r="AB10" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="11">
@@ -11966,22 +12608,22 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>436</v>
-      </c>
-      <c r="N11" t="s">
+        <v>478</v>
+      </c>
+      <c r="O11" t="s">
         <v>421</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>231</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>242</v>
       </c>
-      <c r="AA11" t="s">
-        <v>220</v>
+      <c r="AB11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -12001,24 +12643,27 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" t="s">
+        <v>436</v>
+      </c>
+      <c r="O12" t="s">
         <v>422</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>232</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>176</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>475</v>
       </c>
       <c r="D13" t="s">
         <v>324</v>
@@ -12033,24 +12678,27 @@
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" t="s">
+        <v>479</v>
+      </c>
+      <c r="O13" t="s">
         <v>423</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>237</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>309</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>177</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -12065,24 +12713,24 @@
         <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" t="s">
         <v>424</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>233</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>88</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
@@ -12093,22 +12741,25 @@
       <c r="J15" t="s">
         <v>460</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
         <v>425</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>234</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>89</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
         <v>368</v>
@@ -12119,19 +12770,22 @@
       <c r="J16" t="s">
         <v>74</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
         <v>235</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>66</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>369</v>
@@ -12142,16 +12796,16 @@
       <c r="J17" t="s">
         <v>75</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>90</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
         <v>398</v>
@@ -12162,13 +12816,13 @@
       <c r="J18" t="s">
         <v>363</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
@@ -12179,13 +12833,13 @@
       <c r="J19" t="s">
         <v>474</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
@@ -12196,13 +12850,13 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
         <v>239</v>
@@ -12213,13 +12867,13 @@
       <c r="J21" t="s">
         <v>375</v>
       </c>
-      <c r="V21" t="s">
-        <v>94</v>
+      <c r="W21" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -12230,13 +12884,13 @@
       <c r="J22" t="s">
         <v>76</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>304</v>
@@ -12247,13 +12901,13 @@
       <c r="J23" t="s">
         <v>435</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
@@ -12264,13 +12918,13 @@
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>451</v>
@@ -12281,13 +12935,13 @@
       <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>208</v>
@@ -12295,13 +12949,13 @@
       <c r="F26" t="s">
         <v>265</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
         <v>209</v>
@@ -12309,18 +12963,21 @@
       <c r="F27" t="s">
         <v>249</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
       <c r="D28" t="s">
         <v>471</v>
       </c>
       <c r="F28" t="s">
         <v>266</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -12331,7 +12988,7 @@
       <c r="F29" t="s">
         <v>267</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>101</v>
       </c>
     </row>
@@ -12342,7 +12999,7 @@
       <c r="F30" t="s">
         <v>201</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -12353,7 +13010,7 @@
       <c r="F31" t="s">
         <v>258</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>103</v>
       </c>
     </row>
@@ -12364,7 +13021,7 @@
       <c r="F32" t="s">
         <v>268</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>104</v>
       </c>
     </row>
@@ -12375,7 +13032,7 @@
       <c r="F33" t="s">
         <v>243</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>105</v>
       </c>
     </row>
@@ -12386,7 +13043,7 @@
       <c r="F34" t="s">
         <v>313</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>195</v>
       </c>
     </row>
@@ -12397,7 +13054,7 @@
       <c r="F35" t="s">
         <v>290</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12408,7 +13065,7 @@
       <c r="F36" t="s">
         <v>244</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>321</v>
       </c>
     </row>
@@ -12419,7 +13076,7 @@
       <c r="F37" t="s">
         <v>291</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>426</v>
       </c>
     </row>
@@ -12430,7 +13087,7 @@
       <c r="F38" t="s">
         <v>250</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>376</v>
       </c>
     </row>
@@ -12438,7 +13095,7 @@
       <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>107</v>
       </c>
     </row>
@@ -12446,7 +13103,7 @@
       <c r="F40" t="s">
         <v>197</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>108</v>
       </c>
     </row>
@@ -12454,7 +13111,7 @@
       <c r="F41" t="s">
         <v>272</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>109</v>
       </c>
     </row>
@@ -12462,7 +13119,7 @@
       <c r="F42" t="s">
         <v>283</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>110</v>
       </c>
     </row>
@@ -12470,7 +13127,7 @@
       <c r="F43" t="s">
         <v>284</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -12478,7 +13135,7 @@
       <c r="F44" t="s">
         <v>326</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12486,7 +13143,7 @@
       <c r="F45" t="s">
         <v>325</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>432</v>
       </c>
     </row>
@@ -12494,7 +13151,7 @@
       <c r="F46" t="s">
         <v>196</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>198</v>
       </c>
     </row>
@@ -12502,7 +13159,7 @@
       <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12510,7 +13167,7 @@
       <c r="F48" t="s">
         <v>322</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12518,7 +13175,7 @@
       <c r="F49" t="s">
         <v>351</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -12526,7 +13183,7 @@
       <c r="F50" t="s">
         <v>285</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>115</v>
       </c>
     </row>
@@ -12534,470 +13191,485 @@
       <c r="F51" t="s">
         <v>339</v>
       </c>
-      <c r="V51" t="s">
-        <v>468</v>
+      <c r="W51" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>314</v>
       </c>
-      <c r="V52" t="s">
-        <v>116</v>
+      <c r="W52" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>251</v>
       </c>
-      <c r="V53" t="s">
-        <v>329</v>
+      <c r="W53" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>275</v>
       </c>
-      <c r="V54" t="s">
-        <v>463</v>
+      <c r="W54" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>276</v>
       </c>
-      <c r="V55" t="s">
-        <v>117</v>
+      <c r="W55" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>277</v>
       </c>
-      <c r="V56" t="s">
-        <v>118</v>
+      <c r="W56" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>286</v>
       </c>
-      <c r="V57" t="s">
-        <v>119</v>
+      <c r="W57" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>295</v>
       </c>
-      <c r="V58" t="s">
-        <v>120</v>
+      <c r="W58" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>320</v>
       </c>
-      <c r="V59" t="s">
-        <v>121</v>
+      <c r="W59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>292</v>
       </c>
-      <c r="V60" t="s">
-        <v>122</v>
+      <c r="W60" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>293</v>
       </c>
-      <c r="V61" t="s">
-        <v>123</v>
+      <c r="W61" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>352</v>
       </c>
-      <c r="V62" t="s">
-        <v>431</v>
+      <c r="W62" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>353</v>
       </c>
-      <c r="V63" t="s">
-        <v>199</v>
+      <c r="W63" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>328</v>
       </c>
-      <c r="V64" t="s">
-        <v>372</v>
+      <c r="W64" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>296</v>
       </c>
-      <c r="V65" t="s">
-        <v>437</v>
+      <c r="W65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>252</v>
       </c>
-      <c r="V66" t="s">
-        <v>124</v>
+      <c r="W66" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>336</v>
       </c>
-      <c r="V67" t="s">
-        <v>125</v>
+      <c r="W67" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>297</v>
       </c>
-      <c r="V68" t="s">
-        <v>126</v>
+      <c r="W68" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>393</v>
       </c>
-      <c r="V69" t="s">
-        <v>127</v>
+      <c r="W69" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>287</v>
       </c>
-      <c r="V70" t="s">
-        <v>182</v>
+      <c r="W70" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>394</v>
       </c>
-      <c r="V71" t="s">
-        <v>183</v>
+      <c r="W71" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>245</v>
       </c>
-      <c r="V72" t="s">
-        <v>458</v>
+      <c r="W72" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>327</v>
       </c>
-      <c r="V73" t="s">
-        <v>473</v>
+      <c r="W73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>263</v>
       </c>
-      <c r="V74" t="s">
-        <v>128</v>
+      <c r="W74" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>269</v>
       </c>
-      <c r="V75" t="s">
-        <v>129</v>
+      <c r="W75" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>274</v>
       </c>
-      <c r="V76" t="s">
-        <v>130</v>
+      <c r="W76" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>412</v>
       </c>
-      <c r="V77" t="s">
-        <v>131</v>
+      <c r="W77" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>315</v>
       </c>
-      <c r="V78" t="s">
-        <v>132</v>
+      <c r="W78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>253</v>
       </c>
-      <c r="V79" t="s">
-        <v>184</v>
+      <c r="W79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>264</v>
       </c>
-      <c r="V80" t="s">
-        <v>185</v>
+      <c r="W80" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>270</v>
       </c>
-      <c r="V81" t="s">
-        <v>457</v>
+      <c r="W81" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>259</v>
       </c>
-      <c r="V82" t="s">
-        <v>186</v>
+      <c r="W82" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>254</v>
       </c>
-      <c r="V83" t="s">
-        <v>187</v>
+      <c r="W83" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>271</v>
       </c>
-      <c r="V84" t="s">
-        <v>200</v>
+      <c r="W84" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>255</v>
       </c>
-      <c r="V85" t="s">
-        <v>133</v>
+      <c r="W85" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>256</v>
       </c>
-      <c r="V86" t="s">
-        <v>188</v>
+      <c r="W86" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>288</v>
       </c>
-      <c r="V87" t="s">
-        <v>429</v>
+      <c r="W87" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>294</v>
       </c>
-      <c r="V88" t="s">
-        <v>430</v>
+      <c r="W88" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>278</v>
       </c>
-      <c r="V89" t="s">
-        <v>189</v>
+      <c r="W89" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>323</v>
       </c>
-      <c r="V90" t="s">
-        <v>190</v>
+      <c r="W90" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>260</v>
       </c>
-      <c r="V91" t="s">
-        <v>191</v>
+      <c r="W91" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>261</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8464" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9989" uniqueCount="506">
   <si>
     <t>description</t>
   </si>
@@ -1531,6 +1532,57 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1590,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="271" x14ac:knownFonts="1">
+  <fonts count="319" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3248,8 +3300,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5869,8 +6224,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -10702,6 +11516,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10709,7 +12369,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="344">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11566,52 +13226,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="447" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="261" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="453" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="274" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="474" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="277" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="483" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="289" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="290" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="501" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="293" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="510" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11936,7 +13740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11958,78 +13762,81 @@
         <v>464</v>
       </c>
       <c r="D1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>330</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>316</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>475</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>181</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>379</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>396</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>340</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>380</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>397</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12044,79 +13851,82 @@
         <v>465</v>
       </c>
       <c r="D2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>452</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>470</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>298</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>367</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>417</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>480</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>400</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>413</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>202</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>381</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>402</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>403</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>364</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>390</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>82</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>161</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>415</v>
       </c>
-      <c r="AB2" t="s">
-        <v>211</v>
+      <c r="AC2" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="3">
@@ -12130,1546 +13940,1595 @@
         <v>466</v>
       </c>
       <c r="D3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3" t="s">
         <v>461</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>348</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>476</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>332</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>324</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>317</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>481</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>414</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>203</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>382</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>404</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>365</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>391</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>83</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>347</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>169</v>
       </c>
-      <c r="AB3" t="s">
-        <v>212</v>
+      <c r="AC3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>489</v>
       </c>
       <c r="B4" t="s">
         <v>357</v>
       </c>
       <c r="D4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>370</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>453</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>477</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>333</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>221</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>318</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>482</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>20</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>204</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>383</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>405</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>341</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>392</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>337</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>163</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>407</v>
       </c>
-      <c r="AB4" t="s">
-        <v>213</v>
+      <c r="AC4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
       </c>
       <c r="D5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" t="s">
         <v>462</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>434</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>319</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>334</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>467</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>205</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>384</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>406</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>342</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>338</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>164</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>408</v>
       </c>
-      <c r="AB5" t="s">
-        <v>214</v>
+      <c r="AC5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>359</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>371</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>454</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>331</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>63</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>226</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>374</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>385</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>344</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>84</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>438</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>165</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>171</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>409</v>
       </c>
-      <c r="AB6" t="s">
-        <v>215</v>
+      <c r="AC6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>360</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>207</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>349</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>450</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>298</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>227</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>401</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>386</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>343</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>85</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>439</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>166</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>172</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>410</v>
       </c>
-      <c r="AB7" t="s">
-        <v>216</v>
+      <c r="AC7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>301</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>350</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>311</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>71</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>418</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>228</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>387</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>345</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>86</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>167</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>411</v>
       </c>
-      <c r="AB8" t="s">
-        <v>217</v>
+      <c r="AC8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>289</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>312</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>419</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>229</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>388</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>346</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>194</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>174</v>
       </c>
-      <c r="AB9" t="s">
-        <v>487</v>
+      <c r="AC9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" t="s">
         <v>298</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>335</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>455</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>373</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>420</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>230</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>389</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>240</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>175</v>
       </c>
-      <c r="AB10" t="s">
-        <v>488</v>
+      <c r="AC10" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>238</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>257</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>305</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>11</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>478</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>421</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>231</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>241</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>242</v>
       </c>
-      <c r="AB11" t="s">
-        <v>218</v>
+      <c r="AC11" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s">
         <v>302</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>246</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>306</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>436</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>422</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>232</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>87</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>176</v>
       </c>
-      <c r="AB12" t="s">
-        <v>219</v>
+      <c r="AC12" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>475</v>
-      </c>
-      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>324</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>299</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>307</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>479</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>423</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>237</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>309</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>177</v>
       </c>
-      <c r="AB13" t="s">
-        <v>220</v>
+      <c r="AC13" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" t="s">
+        <v>475</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>247</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>308</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>424</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>233</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>88</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>178</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>248</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>460</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="O15" t="s">
-        <v>425</v>
-      </c>
       <c r="P15" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q15" t="s">
         <v>234</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>89</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>179</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
         <v>368</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>300</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>74</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
       <c r="P16" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q16" t="s">
         <v>235</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>66</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>180</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
         <v>369</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>75</v>
       </c>
-      <c r="W17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA17" t="s">
         <v>469</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
         <v>398</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>81</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>363</v>
       </c>
-      <c r="W18" t="s">
-        <v>91</v>
+      <c r="X18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>279</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>474</v>
       </c>
-      <c r="W19" t="s">
-        <v>92</v>
+      <c r="X19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>280</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="W20" t="s">
-        <v>93</v>
+      <c r="X20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" t="s">
         <v>239</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>281</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="W21" t="s">
-        <v>483</v>
+      <c r="X21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>282</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>76</v>
       </c>
-      <c r="W22" t="s">
-        <v>95</v>
+      <c r="X22" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" t="s">
         <v>304</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>273</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>435</v>
       </c>
-      <c r="W23" t="s">
-        <v>96</v>
+      <c r="X23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>262</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>38</v>
       </c>
-      <c r="W24" t="s">
-        <v>97</v>
+      <c r="X24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>451</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>67</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="W25" t="s">
-        <v>98</v>
+      <c r="X25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
         <v>208</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>265</v>
       </c>
-      <c r="W26" t="s">
-        <v>99</v>
+      <c r="X26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>397</v>
-      </c>
-      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>209</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>249</v>
       </c>
-      <c r="W27" t="s">
-        <v>310</v>
+      <c r="X27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" t="s">
+        <v>471</v>
+      </c>
+      <c r="G28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>210</v>
       </c>
-      <c r="D28" t="s">
-        <v>471</v>
-      </c>
-      <c r="F28" t="s">
-        <v>266</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>472</v>
+      </c>
+      <c r="G29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>472</v>
-      </c>
-      <c r="F29" t="s">
-        <v>267</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>399</v>
+      </c>
+      <c r="G30" t="s">
+        <v>201</v>
+      </c>
+      <c r="X30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>399</v>
-      </c>
-      <c r="F30" t="s">
-        <v>201</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>258</v>
+      </c>
+      <c r="X31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>258</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>268</v>
+      </c>
+      <c r="X32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>268</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+      <c r="X33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>243</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>313</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" t="s">
-        <v>290</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>244</v>
+      </c>
+      <c r="X36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" t="s">
-        <v>244</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>291</v>
+      </c>
+      <c r="X37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>291</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>250</v>
+      </c>
+      <c r="X38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" t="s">
-        <v>250</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="X39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>69</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>197</v>
+      </c>
+      <c r="X40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>197</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>272</v>
+      </c>
+      <c r="X41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>272</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>283</v>
+      </c>
+      <c r="X42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>283</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>284</v>
+      </c>
+      <c r="X43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>284</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>326</v>
+      </c>
+      <c r="X44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>326</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>325</v>
+      </c>
+      <c r="X45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>325</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>196</v>
+      </c>
+      <c r="X46" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>196</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>303</v>
+      </c>
+      <c r="X47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>303</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>322</v>
+      </c>
+      <c r="X48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>322</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>351</v>
+      </c>
+      <c r="X49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>351</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>285</v>
+      </c>
+      <c r="X50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>285</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>339</v>
+      </c>
+      <c r="X51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>339</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>314</v>
+      </c>
+      <c r="X52" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>314</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>251</v>
+      </c>
+      <c r="X53" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>251</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>275</v>
+      </c>
+      <c r="X54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>275</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>276</v>
+      </c>
+      <c r="X55" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>276</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>277</v>
+      </c>
+      <c r="X56" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>277</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>286</v>
+      </c>
+      <c r="X57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>286</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>295</v>
+      </c>
+      <c r="X58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>295</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>320</v>
+      </c>
+      <c r="X59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>320</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>292</v>
+      </c>
+      <c r="X60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>292</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>293</v>
+      </c>
+      <c r="X61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>293</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>352</v>
+      </c>
+      <c r="X62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>352</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>353</v>
+      </c>
+      <c r="X63" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>353</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>328</v>
+      </c>
+      <c r="X64" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>328</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>296</v>
+      </c>
+      <c r="X65" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>296</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>252</v>
+      </c>
+      <c r="X66" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>252</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>336</v>
+      </c>
+      <c r="X67" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>336</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>297</v>
+      </c>
+      <c r="X68" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>297</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>393</v>
+      </c>
+      <c r="X69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>393</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>287</v>
+      </c>
+      <c r="X70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>287</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>394</v>
+      </c>
+      <c r="X71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>394</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>245</v>
+      </c>
+      <c r="X72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>245</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>327</v>
+      </c>
+      <c r="X73" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>327</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>263</v>
+      </c>
+      <c r="X74" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>263</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>269</v>
+      </c>
+      <c r="X75" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>269</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>274</v>
+      </c>
+      <c r="X76" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>274</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>412</v>
+      </c>
+      <c r="X77" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>412</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>315</v>
+      </c>
+      <c r="X78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>315</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>253</v>
+      </c>
+      <c r="X79" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>253</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>264</v>
+      </c>
+      <c r="X80" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>270</v>
+      </c>
+      <c r="X81" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>264</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>259</v>
+      </c>
+      <c r="X82" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>270</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>254</v>
+      </c>
+      <c r="X83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>259</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>271</v>
+      </c>
+      <c r="X84" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>254</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>255</v>
+      </c>
+      <c r="X85" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>271</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>256</v>
+      </c>
+      <c r="X86" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>255</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>288</v>
+      </c>
+      <c r="X87" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>256</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>294</v>
+      </c>
+      <c r="X88" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>288</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>278</v>
+      </c>
+      <c r="X89" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>294</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>323</v>
+      </c>
+      <c r="X90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>278</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>260</v>
+      </c>
+      <c r="X91" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>323</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>261</v>
+      </c>
+      <c r="X92" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>260</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>261</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9989" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10507" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1583,6 +1583,27 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1611,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="319" x14ac:knownFonts="1">
+  <fonts count="335" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3603,8 +3624,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6683,8 +6805,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12362,6 +12637,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12369,7 +12926,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="360">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13370,52 +13927,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="306" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="528" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="309" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="534" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="537" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13740,7 +14345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14170,6 +14775,9 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
+      <c r="F6" t="s">
+        <v>506</v>
+      </c>
       <c r="G6" t="s">
         <v>371</v>
       </c>
@@ -14292,7 +14900,7 @@
         <v>311</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>509</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -14345,7 +14953,7 @@
         <v>312</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
@@ -14386,7 +14994,7 @@
         <v>455</v>
       </c>
       <c r="K10" t="s">
-        <v>373</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
@@ -14424,7 +15032,7 @@
         <v>305</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="M11" t="s">
         <v>478</v>
@@ -14459,7 +15067,7 @@
         <v>306</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>373</v>
       </c>
       <c r="M12" t="s">
         <v>436</v>
@@ -14494,7 +15102,7 @@
         <v>307</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
         <v>479</v>
@@ -14529,7 +15137,7 @@
         <v>308</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>33</v>
@@ -14561,7 +15169,7 @@
         <v>248</v>
       </c>
       <c r="K15" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="M15" t="s">
         <v>34</v>
@@ -14593,7 +15201,7 @@
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
         <v>36</v>
@@ -14625,7 +15233,7 @@
         <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s">
         <v>505</v>
@@ -14648,7 +15256,7 @@
         <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="X18" t="s">
         <v>90</v>
@@ -14668,7 +15276,7 @@
         <v>279</v>
       </c>
       <c r="K19" t="s">
-        <v>474</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s">
         <v>91</v>
@@ -14688,7 +15296,7 @@
         <v>280</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s">
         <v>92</v>
@@ -14708,7 +15316,7 @@
         <v>281</v>
       </c>
       <c r="K21" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="X21" t="s">
         <v>93</v>
@@ -14728,7 +15336,7 @@
         <v>282</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="X22" t="s">
         <v>483</v>
@@ -14745,7 +15353,7 @@
         <v>273</v>
       </c>
       <c r="K23" t="s">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
         <v>95</v>
@@ -14762,7 +15370,7 @@
         <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="X24" t="s">
         <v>96</v>
@@ -14779,7 +15387,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s">
         <v>97</v>
@@ -14795,6 +15403,9 @@
       <c r="G26" t="s">
         <v>265</v>
       </c>
+      <c r="K26" t="s">
+        <v>435</v>
+      </c>
       <c r="X26" t="s">
         <v>98</v>
       </c>
@@ -14809,6 +15420,9 @@
       <c r="G27" t="s">
         <v>249</v>
       </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
       <c r="X27" t="s">
         <v>99</v>
       </c>
@@ -14823,6 +15437,9 @@
       <c r="G28" t="s">
         <v>266</v>
       </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
       <c r="X28" t="s">
         <v>310</v>
       </c>
@@ -14879,7 +15496,7 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>507</v>
       </c>
       <c r="X33" t="s">
         <v>104</v>
@@ -14890,7 +15507,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="X34" t="s">
         <v>105</v>
@@ -14901,7 +15518,7 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
         <v>195</v>
@@ -14912,7 +15529,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="X36" t="s">
         <v>106</v>
@@ -14923,7 +15540,7 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="X37" t="s">
         <v>321</v>
@@ -14934,7 +15551,7 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="X38" t="s">
         <v>426</v>
@@ -14942,7 +15559,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="X39" t="s">
         <v>376</v>
@@ -14950,7 +15567,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="X40" t="s">
         <v>107</v>
@@ -14958,7 +15575,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="X41" t="s">
         <v>108</v>
@@ -14966,7 +15583,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="X42" t="s">
         <v>109</v>
@@ -14974,7 +15591,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X43" t="s">
         <v>110</v>
@@ -14982,7 +15599,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="X44" t="s">
         <v>111</v>
@@ -14990,7 +15607,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X45" t="s">
         <v>112</v>
@@ -14998,7 +15615,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="X46" t="s">
         <v>432</v>
@@ -15006,7 +15623,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="X47" t="s">
         <v>198</v>
@@ -15014,7 +15631,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="X48" t="s">
         <v>68</v>
@@ -15022,7 +15639,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="X49" t="s">
         <v>113</v>
@@ -15030,7 +15647,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="X50" t="s">
         <v>114</v>
@@ -15038,7 +15655,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="X51" t="s">
         <v>115</v>
@@ -15046,7 +15663,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="X52" t="s">
         <v>484</v>
@@ -15054,7 +15671,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="X53" t="s">
         <v>468</v>
@@ -15062,7 +15679,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="X54" t="s">
         <v>116</v>
@@ -15070,7 +15687,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X55" t="s">
         <v>329</v>
@@ -15078,7 +15695,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X56" t="s">
         <v>463</v>
@@ -15086,7 +15703,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="X57" t="s">
         <v>117</v>
@@ -15094,7 +15711,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X58" t="s">
         <v>118</v>
@@ -15102,7 +15719,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="X59" t="s">
         <v>119</v>
@@ -15110,7 +15727,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="X60" t="s">
         <v>120</v>
@@ -15118,7 +15735,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X61" t="s">
         <v>121</v>
@@ -15126,7 +15743,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="X62" t="s">
         <v>122</v>
@@ -15134,7 +15751,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X63" t="s">
         <v>123</v>
@@ -15142,7 +15759,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="X64" t="s">
         <v>431</v>
@@ -15150,7 +15767,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="X65" t="s">
         <v>485</v>
@@ -15158,7 +15775,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="X66" t="s">
         <v>199</v>
@@ -15166,7 +15783,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="X67" t="s">
         <v>372</v>
@@ -15174,7 +15791,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="X68" t="s">
         <v>437</v>
@@ -15182,7 +15799,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="X69" t="s">
         <v>124</v>
@@ -15190,7 +15807,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="X70" t="s">
         <v>125</v>
@@ -15198,7 +15815,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="X71" t="s">
         <v>126</v>
@@ -15206,7 +15823,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>245</v>
+        <v>394</v>
       </c>
       <c r="X72" t="s">
         <v>127</v>
@@ -15214,7 +15831,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="X73" t="s">
         <v>182</v>
@@ -15222,7 +15839,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>263</v>
+        <v>508</v>
       </c>
       <c r="X74" t="s">
         <v>183</v>
@@ -15230,7 +15847,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="X75" t="s">
         <v>458</v>
@@ -15238,7 +15855,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="X76" t="s">
         <v>473</v>
@@ -15246,7 +15863,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>412</v>
+        <v>269</v>
       </c>
       <c r="X77" t="s">
         <v>128</v>
@@ -15254,7 +15871,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="X78" t="s">
         <v>129</v>
@@ -15262,7 +15879,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="X79" t="s">
         <v>130</v>
@@ -15270,7 +15887,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="X80" t="s">
         <v>499</v>
@@ -15278,7 +15895,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="X81" t="s">
         <v>131</v>
@@ -15286,7 +15903,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="X82" t="s">
         <v>132</v>
@@ -15294,7 +15911,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="X83" t="s">
         <v>184</v>
@@ -15302,7 +15919,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="X84" t="s">
         <v>486</v>
@@ -15310,7 +15927,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X85" t="s">
         <v>185</v>
@@ -15318,7 +15935,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="X86" t="s">
         <v>457</v>
@@ -15326,7 +15943,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="X87" t="s">
         <v>186</v>
@@ -15334,7 +15951,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="X88" t="s">
         <v>187</v>
@@ -15342,7 +15959,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="X89" t="s">
         <v>200</v>
@@ -15350,7 +15967,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="X90" t="s">
         <v>133</v>
@@ -15358,7 +15975,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="X91" t="s">
         <v>188</v>
@@ -15366,18 +15983,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="X92" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>260</v>
+      </c>
       <c r="X93" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>261</v>
+      </c>
       <c r="X94" t="s">
         <v>189</v>
       </c>
@@ -15409,126 +16032,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>134</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>433</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>148</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10507" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11547" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1604,6 +1604,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1617,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="335" x14ac:knownFonts="1">
+  <fonts count="367" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3725,8 +3731,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="631">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6958,8 +7166,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -12919,6 +13467,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12926,7 +14038,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="392">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13975,52 +15087,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="322" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="325" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="338" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="341" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="603" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="606" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="612" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="618" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="621" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="624" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="624" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14345,7 +15553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16037,126 +17245,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>134</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>135</v>
+        <v>514</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>136</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>433</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>149</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11547" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12603" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1610,6 +1611,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1639,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="367" x14ac:knownFonts="1">
+  <fonts count="399" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3933,8 +3955,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="631">
+  <fills count="691">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7506,8 +7730,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -7544,6 +8108,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14038,7 +15166,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="424">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15183,52 +16311,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="603" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="603" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="606" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="606" fontId="353" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="354" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="612" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="612" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="356" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="357" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="618" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="618" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="621" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="621" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="624" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="624" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="624" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="624" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="633" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="636" fontId="369" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="639" fontId="370" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="642" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="373" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="648" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="651" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="654" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="654" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="663" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="666" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="669" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="672" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="678" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="681" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="684" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="684" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15553,7 +16777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15605,51 +16829,54 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O1" t="s">
         <v>475</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>181</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>222</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>379</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>396</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>340</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>380</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>397</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -15694,51 +16921,54 @@
         <v>417</v>
       </c>
       <c r="N2" t="s">
+        <v>516</v>
+      </c>
+      <c r="O2" t="s">
         <v>480</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>400</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>236</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>202</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>381</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>402</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>403</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>364</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>390</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>156</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>161</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>168</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>415</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -15783,45 +17013,48 @@
         <v>77</v>
       </c>
       <c r="N3" t="s">
+        <v>517</v>
+      </c>
+      <c r="O3" t="s">
         <v>481</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>414</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>223</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>203</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>382</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>404</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>365</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>391</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>157</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>347</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>169</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15863,45 +17096,48 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
+        <v>518</v>
+      </c>
+      <c r="O4" t="s">
         <v>482</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>224</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>204</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>383</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>405</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>341</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>392</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>337</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>163</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>407</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -15936,40 +17172,43 @@
       <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q5" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>225</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>205</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>384</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>406</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>342</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>338</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>159</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>164</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>408</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -16001,37 +17240,40 @@
       <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q6" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>226</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>374</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>385</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>344</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>438</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>165</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>171</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>409</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -16057,37 +17299,40 @@
       <c r="M7" t="s">
         <v>298</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>227</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>401</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>386</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>343</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>85</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>439</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>166</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>172</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>410</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -16113,34 +17358,34 @@
       <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>418</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>228</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>387</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>345</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>86</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>160</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>167</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>411</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16166,25 +17411,25 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>419</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>229</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>388</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>346</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>194</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>174</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>217</v>
       </c>
     </row>
@@ -16207,22 +17452,22 @@
       <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>420</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>230</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>389</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>240</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>175</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>487</v>
       </c>
     </row>
@@ -16245,19 +17490,19 @@
       <c r="M11" t="s">
         <v>478</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>421</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>231</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>241</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>242</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>495</v>
       </c>
     </row>
@@ -16280,19 +17525,19 @@
       <c r="M12" t="s">
         <v>436</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>422</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>232</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>87</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>176</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>496</v>
       </c>
     </row>
@@ -16315,25 +17560,25 @@
       <c r="M13" t="s">
         <v>479</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>423</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>237</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>309</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>177</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
@@ -16350,25 +17595,25 @@
       <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>424</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>233</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>178</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>475</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -16382,25 +17627,25 @@
       <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>503</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>234</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>89</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>179</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
         <v>368</v>
@@ -16414,25 +17659,25 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>504</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>235</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>180</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>369</v>
@@ -16443,19 +17688,19 @@
       <c r="K17" t="s">
         <v>73</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>505</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>469</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s">
         <v>398</v>
@@ -16466,16 +17711,16 @@
       <c r="K18" t="s">
         <v>460</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>90</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -16486,16 +17731,16 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>91</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -16506,16 +17751,16 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>92</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" t="s">
         <v>239</v>
@@ -16526,16 +17771,16 @@
       <c r="K21" t="s">
         <v>363</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>93</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
@@ -16546,13 +17791,13 @@
       <c r="K22" t="s">
         <v>474</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="E23" t="s">
         <v>304</v>
@@ -16563,13 +17808,13 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -16580,13 +17825,13 @@
       <c r="K24" t="s">
         <v>375</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>451</v>
@@ -16597,13 +17842,13 @@
       <c r="K25" t="s">
         <v>76</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>208</v>
@@ -16614,13 +17859,13 @@
       <c r="K26" t="s">
         <v>435</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>209</v>
@@ -16631,13 +17876,13 @@
       <c r="K27" t="s">
         <v>38</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>471</v>
@@ -16648,13 +17893,13 @@
       <c r="K28" t="s">
         <v>39</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="E29" t="s">
         <v>472</v>
@@ -16662,18 +17907,21 @@
       <c r="G29" t="s">
         <v>267</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
       <c r="E30" t="s">
         <v>399</v>
       </c>
       <c r="G30" t="s">
         <v>201</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -16684,7 +17932,7 @@
       <c r="G31" t="s">
         <v>258</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>102</v>
       </c>
     </row>
@@ -16695,7 +17943,7 @@
       <c r="G32" t="s">
         <v>268</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>103</v>
       </c>
     </row>
@@ -16706,7 +17954,7 @@
       <c r="G33" t="s">
         <v>507</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>104</v>
       </c>
     </row>
@@ -16717,7 +17965,7 @@
       <c r="G34" t="s">
         <v>243</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>105</v>
       </c>
     </row>
@@ -16728,7 +17976,7 @@
       <c r="G35" t="s">
         <v>313</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>195</v>
       </c>
     </row>
@@ -16739,7 +17987,7 @@
       <c r="G36" t="s">
         <v>290</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -16750,7 +17998,7 @@
       <c r="G37" t="s">
         <v>244</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>321</v>
       </c>
     </row>
@@ -16761,7 +18009,7 @@
       <c r="G38" t="s">
         <v>291</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>426</v>
       </c>
     </row>
@@ -16769,7 +18017,7 @@
       <c r="G39" t="s">
         <v>250</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>376</v>
       </c>
     </row>
@@ -16777,7 +18025,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>107</v>
       </c>
     </row>
@@ -16785,7 +18033,7 @@
       <c r="G41" t="s">
         <v>197</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>108</v>
       </c>
     </row>
@@ -16793,7 +18041,7 @@
       <c r="G42" t="s">
         <v>272</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>109</v>
       </c>
     </row>
@@ -16801,7 +18049,7 @@
       <c r="G43" t="s">
         <v>283</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>110</v>
       </c>
     </row>
@@ -16809,7 +18057,7 @@
       <c r="G44" t="s">
         <v>284</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16817,7 +18065,7 @@
       <c r="G45" t="s">
         <v>326</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>112</v>
       </c>
     </row>
@@ -16825,7 +18073,7 @@
       <c r="G46" t="s">
         <v>325</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>432</v>
       </c>
     </row>
@@ -16833,7 +18081,7 @@
       <c r="G47" t="s">
         <v>196</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>198</v>
       </c>
     </row>
@@ -16841,7 +18089,7 @@
       <c r="G48" t="s">
         <v>303</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -16849,7 +18097,7 @@
       <c r="G49" t="s">
         <v>322</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>113</v>
       </c>
     </row>
@@ -16857,7 +18105,7 @@
       <c r="G50" t="s">
         <v>351</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>114</v>
       </c>
     </row>
@@ -16865,7 +18113,7 @@
       <c r="G51" t="s">
         <v>285</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>115</v>
       </c>
     </row>
@@ -16873,7 +18121,7 @@
       <c r="G52" t="s">
         <v>339</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>484</v>
       </c>
     </row>
@@ -16881,7 +18129,7 @@
       <c r="G53" t="s">
         <v>314</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>468</v>
       </c>
     </row>
@@ -16889,7 +18137,7 @@
       <c r="G54" t="s">
         <v>251</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16897,7 +18145,7 @@
       <c r="G55" t="s">
         <v>275</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>329</v>
       </c>
     </row>
@@ -16905,7 +18153,7 @@
       <c r="G56" t="s">
         <v>276</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -16913,7 +18161,7 @@
       <c r="G57" t="s">
         <v>277</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>117</v>
       </c>
     </row>
@@ -16921,7 +18169,7 @@
       <c r="G58" t="s">
         <v>286</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>118</v>
       </c>
     </row>
@@ -16929,7 +18177,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>119</v>
       </c>
     </row>
@@ -16937,7 +18185,7 @@
       <c r="G60" t="s">
         <v>320</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16945,7 +18193,7 @@
       <c r="G61" t="s">
         <v>292</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16953,7 +18201,7 @@
       <c r="G62" t="s">
         <v>293</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>122</v>
       </c>
     </row>
@@ -16961,7 +18209,7 @@
       <c r="G63" t="s">
         <v>352</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>123</v>
       </c>
     </row>
@@ -16969,7 +18217,7 @@
       <c r="G64" t="s">
         <v>353</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>431</v>
       </c>
     </row>
@@ -16977,7 +18225,7 @@
       <c r="G65" t="s">
         <v>328</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>485</v>
       </c>
     </row>
@@ -16985,7 +18233,7 @@
       <c r="G66" t="s">
         <v>296</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>199</v>
       </c>
     </row>
@@ -16993,7 +18241,7 @@
       <c r="G67" t="s">
         <v>252</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>372</v>
       </c>
     </row>
@@ -17001,7 +18249,7 @@
       <c r="G68" t="s">
         <v>336</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>437</v>
       </c>
     </row>
@@ -17009,7 +18257,7 @@
       <c r="G69" t="s">
         <v>297</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>124</v>
       </c>
     </row>
@@ -17017,7 +18265,7 @@
       <c r="G70" t="s">
         <v>393</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>125</v>
       </c>
     </row>
@@ -17025,7 +18273,7 @@
       <c r="G71" t="s">
         <v>287</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>126</v>
       </c>
     </row>
@@ -17033,7 +18281,7 @@
       <c r="G72" t="s">
         <v>394</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>127</v>
       </c>
     </row>
@@ -17041,7 +18289,7 @@
       <c r="G73" t="s">
         <v>245</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>182</v>
       </c>
     </row>
@@ -17049,7 +18297,7 @@
       <c r="G74" t="s">
         <v>508</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>183</v>
       </c>
     </row>
@@ -17057,7 +18305,7 @@
       <c r="G75" t="s">
         <v>327</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>458</v>
       </c>
     </row>
@@ -17065,7 +18313,7 @@
       <c r="G76" t="s">
         <v>263</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>473</v>
       </c>
     </row>
@@ -17073,7 +18321,7 @@
       <c r="G77" t="s">
         <v>269</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>128</v>
       </c>
     </row>
@@ -17081,7 +18329,7 @@
       <c r="G78" t="s">
         <v>274</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17089,7 +18337,7 @@
       <c r="G79" t="s">
         <v>412</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>130</v>
       </c>
     </row>
@@ -17097,7 +18345,7 @@
       <c r="G80" t="s">
         <v>315</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>499</v>
       </c>
     </row>
@@ -17105,7 +18353,7 @@
       <c r="G81" t="s">
         <v>253</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>131</v>
       </c>
     </row>
@@ -17113,7 +18361,7 @@
       <c r="G82" t="s">
         <v>264</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>132</v>
       </c>
     </row>
@@ -17121,7 +18369,7 @@
       <c r="G83" t="s">
         <v>270</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>184</v>
       </c>
     </row>
@@ -17129,7 +18377,7 @@
       <c r="G84" t="s">
         <v>259</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>486</v>
       </c>
     </row>
@@ -17137,7 +18385,7 @@
       <c r="G85" t="s">
         <v>254</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>185</v>
       </c>
     </row>
@@ -17145,7 +18393,7 @@
       <c r="G86" t="s">
         <v>271</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>457</v>
       </c>
     </row>
@@ -17153,7 +18401,7 @@
       <c r="G87" t="s">
         <v>255</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>186</v>
       </c>
     </row>
@@ -17161,7 +18409,7 @@
       <c r="G88" t="s">
         <v>256</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>187</v>
       </c>
     </row>
@@ -17169,7 +18417,7 @@
       <c r="G89" t="s">
         <v>288</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17177,7 +18425,7 @@
       <c r="G90" t="s">
         <v>294</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>133</v>
       </c>
     </row>
@@ -17185,7 +18433,7 @@
       <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>188</v>
       </c>
     </row>
@@ -17193,7 +18441,7 @@
       <c r="G92" t="s">
         <v>323</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>429</v>
       </c>
     </row>
@@ -17201,7 +18449,7 @@
       <c r="G93" t="s">
         <v>260</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>430</v>
       </c>
     </row>
@@ -17209,172 +18457,172 @@
       <c r="G94" t="s">
         <v>261</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12603" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13666" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1632,6 +1632,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="399" x14ac:knownFonts="1">
+  <fonts count="431" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4157,8 +4169,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="691">
+  <fills count="751">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8070,8 +8284,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="759">
     <border>
       <left/>
       <right/>
@@ -8108,6 +8662,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15166,7 +16284,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="424">
+  <cellXfs count="456">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16407,52 +17525,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="663" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="663" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="666" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="666" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="669" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="669" fontId="386" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="672" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="672" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="389" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="678" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="678" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="681" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="681" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="684" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="684" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="684" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="684" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="693" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="696" fontId="401" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="699" fontId="402" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="702" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="404" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="405" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="708" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="711" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="714" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="714" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="723" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="726" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="729" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="732" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="738" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="741" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="744" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="744" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17173,7 +18387,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
@@ -17241,7 +18455,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -17300,7 +18514,7 @@
         <v>298</v>
       </c>
       <c r="N7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -17358,6 +18572,9 @@
       <c r="M8" t="s">
         <v>28</v>
       </c>
+      <c r="N8" t="s">
+        <v>519</v>
+      </c>
       <c r="Q8" t="s">
         <v>418</v>
       </c>
@@ -17411,6 +18628,9 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
+      <c r="N9" t="s">
+        <v>520</v>
+      </c>
       <c r="Q9" t="s">
         <v>419</v>
       </c>
@@ -17452,6 +18672,9 @@
       <c r="M10" t="s">
         <v>30</v>
       </c>
+      <c r="N10" t="s">
+        <v>521</v>
+      </c>
       <c r="Q10" t="s">
         <v>420</v>
       </c>
@@ -17840,7 +19063,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>525</v>
       </c>
       <c r="Y25" t="s">
         <v>97</v>
@@ -17857,7 +19080,7 @@
         <v>265</v>
       </c>
       <c r="K26" t="s">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s">
         <v>98</v>
@@ -17874,7 +19097,7 @@
         <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="Y27" t="s">
         <v>99</v>
@@ -17891,7 +19114,7 @@
         <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
         <v>310</v>
@@ -17906,6 +19129,9 @@
       </c>
       <c r="G29" t="s">
         <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
       </c>
       <c r="Y29" t="s">
         <v>100</v>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13666" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14201" uniqueCount="530">
   <si>
     <t>description</t>
   </si>
@@ -1644,6 +1644,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1663,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="431" x14ac:knownFonts="1">
+  <fonts count="447" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4371,8 +4383,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="751">
+  <fills count="781">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8624,8 +8737,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="759">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -8662,6 +8945,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -16284,7 +16849,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="472">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17621,52 +18186,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="723" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="723" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="726" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="726" fontId="417" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="729" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="729" fontId="418" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="732" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="732" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="421" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="738" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="738" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="741" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="741" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="744" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="744" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="744" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="744" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="753" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="756" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="759" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="762" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="768" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="771" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="774" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="774" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18197,7 +18810,7 @@
         <v>466</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E3" t="s">
         <v>461</v>
@@ -18280,7 +18893,7 @@
         <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -18363,7 +18976,7 @@
         <v>358</v>
       </c>
       <c r="D5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
         <v>462</v>
@@ -18387,7 +19000,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
@@ -18433,6 +19046,9 @@
       <c r="B6" t="s">
         <v>359</v>
       </c>
+      <c r="D6" t="s">
+        <v>493</v>
+      </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
@@ -18455,7 +19071,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -18514,7 +19130,7 @@
         <v>298</v>
       </c>
       <c r="N7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -18573,7 +19189,7 @@
         <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q8" t="s">
         <v>418</v>
@@ -18629,7 +19245,7 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="Q9" t="s">
         <v>419</v>
@@ -18673,7 +19289,7 @@
         <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q10" t="s">
         <v>420</v>
@@ -18713,6 +19329,9 @@
       <c r="M11" t="s">
         <v>478</v>
       </c>
+      <c r="N11" t="s">
+        <v>520</v>
+      </c>
       <c r="Q11" t="s">
         <v>421</v>
       </c>
@@ -18748,6 +19367,9 @@
       <c r="M12" t="s">
         <v>436</v>
       </c>
+      <c r="N12" t="s">
+        <v>521</v>
+      </c>
       <c r="Q12" t="s">
         <v>422</v>
       </c>
@@ -19063,7 +19685,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Y25" t="s">
         <v>97</v>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -18,17 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14201" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14758" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1656,6 +1656,75 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1732,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="447" x14ac:knownFonts="1">
+  <fonts count="463" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4484,8 +4553,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="781">
+  <fills count="808">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8907,8 +9077,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="819">
     <border>
       <left/>
       <right/>
@@ -16664,6 +16987,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16849,7 +17498,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="488">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18234,52 +18883,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="753" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="753" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="756" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="756" fontId="433" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="759" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="759" fontId="434" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="762" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="762" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="437" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="768" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="768" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="771" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="771" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="774" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="774" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="774" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="774" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="777" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="783" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="786" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="789" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="792" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="798" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="789" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="801" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="801" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="804" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18604,7 +19301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18985,10 +19682,13 @@
         <v>434</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>531</v>
       </c>
       <c r="H5" t="s">
         <v>459</v>
+      </c>
+      <c r="I5" t="s">
+        <v>536</v>
       </c>
       <c r="J5" t="s">
         <v>334</v>
@@ -19056,7 +19756,7 @@
         <v>506</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="H6" t="s">
         <v>454</v>
@@ -19118,11 +19818,14 @@
         <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="H7" t="s">
         <v>450</v>
       </c>
+      <c r="J7" t="s">
+        <v>537</v>
+      </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
@@ -19163,7 +19866,7 @@
         <v>410</v>
       </c>
       <c r="AD7" t="s">
-        <v>215</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8">
@@ -19177,7 +19880,7 @@
         <v>301</v>
       </c>
       <c r="G8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
         <v>311</v>
@@ -19219,7 +19922,7 @@
         <v>411</v>
       </c>
       <c r="AD8" t="s">
-        <v>216</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9">
@@ -19233,7 +19936,7 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="H9" t="s">
         <v>312</v>
@@ -19266,7 +19969,7 @@
         <v>174</v>
       </c>
       <c r="AD9" t="s">
-        <v>217</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10">
@@ -19277,7 +19980,7 @@
         <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="H10" t="s">
         <v>455</v>
@@ -19307,7 +20010,7 @@
         <v>175</v>
       </c>
       <c r="AD10" t="s">
-        <v>487</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11">
@@ -19318,7 +20021,7 @@
         <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="H11" t="s">
         <v>305</v>
@@ -19345,7 +20048,7 @@
         <v>242</v>
       </c>
       <c r="AD11" t="s">
-        <v>495</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
@@ -19356,7 +20059,7 @@
         <v>302</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H12" t="s">
         <v>306</v>
@@ -19365,7 +20068,7 @@
         <v>373</v>
       </c>
       <c r="M12" t="s">
-        <v>436</v>
+        <v>538</v>
       </c>
       <c r="N12" t="s">
         <v>521</v>
@@ -19383,7 +20086,7 @@
         <v>176</v>
       </c>
       <c r="AD12" t="s">
-        <v>496</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13">
@@ -19394,7 +20097,7 @@
         <v>324</v>
       </c>
       <c r="G13" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="H13" t="s">
         <v>307</v>
@@ -19403,7 +20106,7 @@
         <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="Q13" t="s">
         <v>423</v>
@@ -19418,7 +20121,7 @@
         <v>177</v>
       </c>
       <c r="AD13" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14">
@@ -19429,7 +20132,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
         <v>308</v>
@@ -19438,7 +20141,7 @@
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>479</v>
       </c>
       <c r="Q14" t="s">
         <v>424</v>
@@ -19453,7 +20156,7 @@
         <v>178</v>
       </c>
       <c r="AD14" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15">
@@ -19464,13 +20167,13 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K15" t="s">
         <v>511</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="s">
         <v>503</v>
@@ -19485,7 +20188,7 @@
         <v>179</v>
       </c>
       <c r="AD15" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16">
@@ -19496,13 +20199,13 @@
         <v>368</v>
       </c>
       <c r="G16" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="K16" t="s">
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>539</v>
       </c>
       <c r="Q16" t="s">
         <v>504</v>
@@ -19517,7 +20220,7 @@
         <v>180</v>
       </c>
       <c r="AD16" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -19528,11 +20231,14 @@
         <v>369</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
         <v>73</v>
       </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
       <c r="Y17" t="s">
         <v>505</v>
       </c>
@@ -19540,7 +20246,7 @@
         <v>469</v>
       </c>
       <c r="AD17" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18">
@@ -19551,16 +20257,19 @@
         <v>398</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>460</v>
       </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
       <c r="Y18" t="s">
         <v>90</v>
       </c>
       <c r="AD18" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19">
@@ -19571,7 +20280,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
@@ -19580,7 +20289,7 @@
         <v>91</v>
       </c>
       <c r="AD19" t="s">
-        <v>218</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20">
@@ -19591,7 +20300,7 @@
         <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
@@ -19600,7 +20309,7 @@
         <v>92</v>
       </c>
       <c r="AD20" t="s">
-        <v>219</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21">
@@ -19611,7 +20320,7 @@
         <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K21" t="s">
         <v>363</v>
@@ -19620,7 +20329,7 @@
         <v>93</v>
       </c>
       <c r="AD21" t="s">
-        <v>220</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22">
@@ -19628,16 +20337,19 @@
         <v>396</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>530</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K22" t="s">
         <v>474</v>
       </c>
       <c r="Y22" t="s">
         <v>483</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23">
@@ -19645,16 +20357,19 @@
         <v>340</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K23" t="s">
         <v>37</v>
       </c>
       <c r="Y23" t="s">
         <v>95</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="24">
@@ -19662,16 +20377,19 @@
         <v>380</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="G24" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K24" t="s">
         <v>375</v>
       </c>
       <c r="Y24" t="s">
-        <v>96</v>
+        <v>540</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="25">
@@ -19679,16 +20397,19 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>451</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
         <v>527</v>
       </c>
       <c r="Y25" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="26">
@@ -19696,16 +20417,19 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>451</v>
       </c>
       <c r="G26" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>76</v>
       </c>
       <c r="Y26" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27">
@@ -19713,16 +20437,19 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
         <v>435</v>
       </c>
       <c r="Y27" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="28">
@@ -19730,16 +20457,16 @@
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>471</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -19747,16 +20474,16 @@
         <v>397</v>
       </c>
       <c r="E29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
       </c>
       <c r="Y29" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
@@ -19764,713 +20491,763 @@
         <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="Y30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="Y31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Y32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>507</v>
+        <v>268</v>
       </c>
       <c r="Y33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>507</v>
       </c>
       <c r="Y34" t="s">
-        <v>105</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="Y35" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>291</v>
       </c>
-      <c r="Y38" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>250</v>
-      </c>
       <c r="Y39" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s">
-        <v>107</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="Y41" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="Y42" t="s">
-        <v>109</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>283</v>
+        <v>532</v>
       </c>
       <c r="Y43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Y44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="Y45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="Y46" t="s">
-        <v>432</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="Y47" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="Y48" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="Y49" t="s">
-        <v>113</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="Y50" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="Y51" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Y52" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="Y53" t="s">
-        <v>468</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="Y54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="Y55" t="s">
-        <v>329</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="Y56" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y57" t="s">
-        <v>117</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>533</v>
       </c>
       <c r="Y59" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="Y60" t="s">
-        <v>120</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Y61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Y62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="Y63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="Y64" t="s">
-        <v>431</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="Y65" t="s">
-        <v>485</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="Y66" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="Y67" t="s">
-        <v>372</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Y68" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y69" t="s">
-        <v>124</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="Y70" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>287</v>
+        <v>534</v>
       </c>
       <c r="Y71" t="s">
-        <v>126</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="Y72" t="s">
-        <v>127</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="Y73" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>508</v>
+        <v>287</v>
       </c>
       <c r="Y74" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="Y75" t="s">
-        <v>458</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="Y76" t="s">
-        <v>473</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>269</v>
+        <v>508</v>
       </c>
       <c r="Y77" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="Y78" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>412</v>
+        <v>263</v>
       </c>
       <c r="Y79" t="s">
-        <v>130</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="Y80" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Y81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="Y82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y83" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Y84" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Y85" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y86" t="s">
-        <v>457</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Y87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>256</v>
+        <v>535</v>
       </c>
       <c r="Y88" t="s">
-        <v>187</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="Y90" t="s">
-        <v>133</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="Y91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="Y92" t="s">
-        <v>429</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y93" t="s">
-        <v>430</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>261</v>
       </c>
-      <c r="Y94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>206</v>
+        <v>429</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>193</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>512</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>513</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>514</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>366</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>136</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>137</v>
+        <v>513</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>139</v>
+        <v>514</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>433</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>152</v>
+        <v>433</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>154</v>
+        <v>546</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -18,40 +18,41 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14758" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15883" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1725,6 +1726,39 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1766,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="463" x14ac:knownFonts="1">
+  <fonts count="495" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4654,8 +4688,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="808">
+  <fills count="862">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9230,8 +9466,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="819">
+  <borders count="883">
     <border>
       <left/>
       <right/>
@@ -16987,6 +17529,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17498,7 +18692,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="488">
+  <cellXfs count="520">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18931,52 +20125,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="783" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="783" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="786" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="786" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="789" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="789" fontId="450" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="792" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="792" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="452" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="453" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="798" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="798" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="789" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="789" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="801" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="801" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="801" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="801" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="804" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="804" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="810" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="813" fontId="465" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="816" fontId="466" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="819" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="469" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="825" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="816" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="828" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="828" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="831" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="837" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="840" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="843" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="846" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="852" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="855" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="855" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19301,7 +20591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19326,81 +20616,84 @@
         <v>489</v>
       </c>
       <c r="E1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>330</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>316</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>515</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>475</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>222</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>379</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>395</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>340</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>380</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>397</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -19418,81 +20711,84 @@
         <v>490</v>
       </c>
       <c r="E2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>452</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>470</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>298</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>367</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>417</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>516</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>480</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>400</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>413</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>236</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>202</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>381</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>402</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>403</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>364</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>390</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>161</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>415</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -19509,76 +20805,76 @@
       <c r="D3" t="s">
         <v>526</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>461</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>348</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>476</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>332</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>324</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>317</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>517</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>481</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>414</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>223</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>203</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>382</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>404</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>365</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>391</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>157</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>347</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>169</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19592,82 +20888,82 @@
       <c r="D4" t="s">
         <v>491</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>370</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>453</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>477</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>333</v>
       </c>
-      <c r="K4" t="s">
-        <v>221</v>
-      </c>
       <c r="L4" t="s">
+        <v>562</v>
+      </c>
+      <c r="M4" t="s">
         <v>318</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>518</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>224</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>204</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>383</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>405</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>341</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>392</v>
       </c>
-      <c r="Y4" t="s">
-        <v>337</v>
-      </c>
       <c r="Z4" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA4" t="s">
         <v>158</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>163</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>407</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
@@ -19675,73 +20971,73 @@
       <c r="D5" t="s">
         <v>492</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>462</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>434</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>531</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>536</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>334</v>
       </c>
-      <c r="K5" t="s">
-        <v>467</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>528</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>24</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>225</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>205</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>384</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>406</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>342</v>
       </c>
-      <c r="Y5" t="s">
-        <v>338</v>
-      </c>
       <c r="Z5" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA5" t="s">
         <v>159</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>164</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>408</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>359</v>
@@ -19749,1505 +21045,1519 @@
       <c r="D6" t="s">
         <v>493</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>506</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>319</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>454</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>331</v>
       </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>467</v>
+      </c>
+      <c r="N6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>522</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>25</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>226</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>374</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>385</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>344</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>438</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>165</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>409</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>360</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>207</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>371</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>450</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>537</v>
       </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
         <v>298</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>523</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>227</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>401</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>386</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>343</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>85</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>439</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>166</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>172</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>410</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>301</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>349</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>311</v>
       </c>
-      <c r="K8" t="s">
-        <v>509</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>524</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>418</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>228</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>387</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>345</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>86</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>167</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>411</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>350</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>312</v>
       </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>509</v>
+      </c>
+      <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>529</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>419</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>229</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>388</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>346</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>194</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>174</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>298</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>289</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>455</v>
       </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>519</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>420</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>230</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>389</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>240</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>175</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" t="s">
+        <v>555</v>
+      </c>
+      <c r="H11" t="s">
         <v>335</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>305</v>
       </c>
-      <c r="K11" t="s">
-        <v>510</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
         <v>478</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>520</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>421</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>231</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>241</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>242</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>302</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>257</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>306</v>
       </c>
-      <c r="K12" t="s">
-        <v>373</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>510</v>
+      </c>
+      <c r="N12" t="s">
         <v>538</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>521</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>422</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>232</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>87</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>176</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" t="s">
         <v>324</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>246</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>307</v>
       </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>373</v>
+      </c>
+      <c r="N13" t="s">
         <v>436</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>423</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>237</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>309</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>177</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>515</v>
-      </c>
-      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>299</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>308</v>
       </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
         <v>479</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>424</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>233</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>88</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>178</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
-      </c>
-      <c r="E15" t="s">
+        <v>515</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>247</v>
       </c>
-      <c r="K15" t="s">
-        <v>511</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>503</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>234</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>89</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>179</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" t="s">
         <v>368</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>248</v>
       </c>
-      <c r="K16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>511</v>
+      </c>
+      <c r="N16" t="s">
         <v>539</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>504</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>235</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>180</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
         <v>369</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>300</v>
       </c>
-      <c r="K17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
         <v>34</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>505</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>469</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>398</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="s">
-        <v>460</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>90</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" t="s">
+        <v>561</v>
+      </c>
+      <c r="H19" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z19" t="s">
         <v>91</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>379</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
         <v>279</v>
       </c>
-      <c r="K20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
         <v>280</v>
       </c>
-      <c r="K21" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
         <v>93</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="E22" t="s">
-        <v>530</v>
-      </c>
-      <c r="G22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" t="s">
         <v>281</v>
       </c>
-      <c r="K22" t="s">
-        <v>474</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z22" t="s">
         <v>483</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F23" t="s">
+        <v>530</v>
+      </c>
+      <c r="H23" t="s">
         <v>282</v>
       </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z23" t="s">
         <v>95</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>380</v>
-      </c>
-      <c r="E24" t="s">
-        <v>304</v>
-      </c>
-      <c r="G24" t="s">
+        <v>340</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
         <v>273</v>
       </c>
-      <c r="K24" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s">
         <v>540</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" t="s">
         <v>262</v>
       </c>
-      <c r="K25" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z25" t="s">
         <v>96</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>451</v>
-      </c>
-      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z26" t="s">
         <v>97</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>451</v>
+      </c>
+      <c r="H27" t="s">
         <v>265</v>
       </c>
-      <c r="K27" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s">
         <v>98</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" t="s">
         <v>249</v>
       </c>
-      <c r="K28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z28" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" t="s">
-        <v>471</v>
-      </c>
-      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" t="s">
         <v>266</v>
       </c>
-      <c r="K29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" t="s">
+        <v>471</v>
+      </c>
+      <c r="H30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>210</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>472</v>
       </c>
-      <c r="G30" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>399</v>
       </c>
-      <c r="G31" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>55</v>
       </c>
-      <c r="G32" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>56</v>
       </c>
-      <c r="G33" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="G34" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>58</v>
       </c>
-      <c r="G35" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>59</v>
       </c>
-      <c r="G36" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>60</v>
       </c>
-      <c r="G37" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>61</v>
       </c>
-      <c r="G38" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>62</v>
       </c>
-      <c r="G39" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>250</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" t="s">
-        <v>542</v>
+      <c r="Z41" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>197</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>532</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>272</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>283</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>284</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>326</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>325</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>196</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>303</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>322</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>351</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>285</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>339</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>314</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>251</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>275</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>276</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>533</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>277</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>286</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>295</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>320</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>292</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>293</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>352</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>353</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>328</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>296</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>252</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>534</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>297</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>393</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>287</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>394</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>245</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>508</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>327</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>263</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>269</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>274</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>412</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>315</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>253</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>264</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>270</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>259</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>535</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>254</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>271</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>255</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>256</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>288</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>294</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>278</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>323</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>260</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>261</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15883" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17013" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1759,6 +1759,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="495" x14ac:knownFonts="1">
+  <fonts count="527" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4890,8 +4899,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="862">
+  <fills count="916">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9772,8 +9983,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="883">
+  <borders count="947">
     <border>
       <left/>
       <right/>
@@ -17529,6 +18046,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18692,7 +19861,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="520">
+  <cellXfs count="552">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20221,52 +21390,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="837" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="837" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="840" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="840" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="843" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="843" fontId="482" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="846" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="846" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="485" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="852" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="852" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="855" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="855" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="855" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="855" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="864" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="867" fontId="497" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="870" fontId="498" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="873" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="500" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="501" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="879" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="870" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="882" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="882" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="888" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="891" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="894" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="897" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="900" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="906" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="897" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="909" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="909" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20591,7 +21856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21057,6 +22322,9 @@
       <c r="I6" t="s">
         <v>454</v>
       </c>
+      <c r="J6" t="s">
+        <v>564</v>
+      </c>
       <c r="K6" t="s">
         <v>331</v>
       </c>
@@ -21573,7 +22841,7 @@
         <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>561</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -21593,7 +22861,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>279</v>
@@ -21613,7 +22881,7 @@
         <v>379</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="H21" t="s">
         <v>280</v>
@@ -21633,7 +22901,7 @@
         <v>395</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>530</v>
       </c>
       <c r="H22" t="s">
         <v>281</v>
@@ -21653,7 +22921,7 @@
         <v>396</v>
       </c>
       <c r="F23" t="s">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
         <v>282</v>
@@ -21673,7 +22941,7 @@
         <v>340</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
         <v>273</v>
@@ -21693,7 +22961,7 @@
         <v>380</v>
       </c>
       <c r="F25" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
         <v>262</v>
@@ -21713,7 +22981,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -21733,7 +23001,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>451</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
         <v>265</v>
@@ -21753,7 +23021,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H28" t="s">
         <v>249</v>
@@ -21770,7 +23038,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>471</v>
       </c>
       <c r="H29" t="s">
         <v>266</v>
@@ -21787,7 +23055,7 @@
         <v>397</v>
       </c>
       <c r="F30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H30" t="s">
         <v>267</v>
@@ -21804,7 +23072,7 @@
         <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
       <c r="H31" t="s">
         <v>201</v>
@@ -21815,7 +23083,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>399</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>258</v>
@@ -21826,7 +23094,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>268</v>
@@ -21837,7 +23105,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
         <v>507</v>
@@ -21848,7 +23116,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
         <v>243</v>
@@ -21859,7 +23127,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>313</v>
@@ -21870,7 +23138,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>290</v>
@@ -21881,7 +23149,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
         <v>244</v>
@@ -21892,7 +23160,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
         <v>291</v>
@@ -21902,9 +23170,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
       <c r="H40" t="s">
         <v>250</v>
       </c>
@@ -22378,186 +23643,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>430</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>189</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>190</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>512</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>560</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>134</v>
+        <v>560</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>135</v>
+        <v>514</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>136</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>433</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>546</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>150</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17013" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17578" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1775,7 +1775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="527" x14ac:knownFonts="1">
+  <fonts count="543" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5101,8 +5101,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="916">
+  <fills count="943">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10289,8 +10390,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="947">
+  <borders count="979">
     <border>
       <left/>
       <right/>
@@ -18046,6 +18300,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -19861,7 +20441,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="552">
+  <cellXfs count="568">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21486,52 +22066,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="888" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="891" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="891" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="894" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="894" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="897" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="897" fontId="514" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="900" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="900" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="516" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="903" fontId="517" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="906" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="906" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="897" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="897" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="909" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="909" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="909" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="909" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="900" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="900" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="915" fontId="526" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="921" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="930" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="924" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="936" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="936" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/start-05.xlsx
+++ b/artifact/script/start-05.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17578" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18708" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1775,7 +1775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="543" x14ac:knownFonts="1">
+  <fonts count="575" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5202,8 +5202,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="943">
+  <fills count="997">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10543,8 +10745,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="979">
+  <borders count="1043">
     <border>
       <left/>
       <right/>
@@ -18300,6 +18808,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -20441,7 +21601,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="568">
+  <cellXfs count="600">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22114,52 +23274,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="915" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="921" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="921" fontId="529" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="530" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="532" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="930" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="930" fontId="533" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="924" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="924" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="936" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="936" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="936" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="936" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="942" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="945" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="948" fontId="545" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="951" fontId="546" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="954" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="548" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="549" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="960" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="951" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="963" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="963" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="954" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="966" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="954" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="972" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="975" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="978" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="981" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="987" borderId="1034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="978" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="990" borderId="1042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="990" borderId="1042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="981" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="993" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="981" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="996" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
